--- a/similarities/split_global/harmonic_similarity_timestamps_138.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_138.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:46.097000', '0:00:54.196000')]</t>
+          <t>('0:00:09.400000', '0:00:20.180000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.800000', '0:00:13.480000')]</t>
+          <t>('0:00:00.660000', '0:00:06.020000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=46.097']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=9.4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=5.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:07.100430', '0:01:15.018435')]</t>
+          <t>('0:00:19.780000', '0:00:23.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:00:22.770000', '0:00:31.750000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'E', 'A:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:12.980000', '0:01:15.480000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:28.613356', '0:00:42.313129')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=72.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=28.613356']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.950000', '0:00:14.410000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:47.026870')]</t>
+          <t>('0:00:01.340000', '0:00:08.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:22.160000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:24.760000', '0:00:34.920000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:12.800000', '0:02:44.960000')]</t>
+          <t>('0:00:34.866000', '0:00:59.164000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:40.100000')]</t>
+          <t>('0:00:58.300068', '0:01:03.443287')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=132.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:46.932280', '0:00:54.037586')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:43.926916', '0:00:50.765192')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:17.300000', '0:01:20.480000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=77.3']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['B:7', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+          <t>('0:00:13.384180', '0:00:22.457415')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:05')]</t>
+          <t>('0:00:20.240000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=20.24</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:03.660000', '0:00:09.640000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:36.500000', '0:00:41.660000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_51</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj7']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:maj7']]</t>
+          <t>['G:min7', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:51.170000', '0:00:54.730000')]</t>
+          <t>('0:00:08.350000', '0:00:11.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:27.630000', '0:00:31.040000')]</t>
+          <t>('0:00:39.976000', '0:00:44.640000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=51.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=27.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
